--- a/apps/web/LanguagePack.xlsx
+++ b/apps/web/LanguagePack.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choeinhwan/Desktop/Project/fitness-recoder/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79216A5A-58F6-E24F-98D8-723344CE24EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>namespace</t>
   </si>
@@ -100,6 +111,69 @@
     <t>닫기</t>
   </si>
   <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>수정</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>상세보기</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>저장</t>
+  </si>
+  <si>
+    <t>addExercise</t>
+  </si>
+  <si>
+    <t>Add Exercise</t>
+  </si>
+  <si>
+    <t>운동 추가</t>
+  </si>
+  <si>
+    <t>savePreset</t>
+  </si>
+  <si>
+    <t>Save Preset</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>wrong.schedule</t>
+  </si>
+  <si>
+    <t>Don't have schedule. Please, check again</t>
+  </si>
+  <si>
+    <t>잘못된 접근입니다. 스케줄을 확인해주세요.</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
@@ -148,6 +222,9 @@
     <t>schedule.actionBtn.start</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
     <t>운동 시작</t>
   </si>
   <si>
@@ -170,282 +247,146 @@
   </si>
   <si>
     <t>main</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todaySchedule</t>
+  </si>
+  <si>
+    <t>Today's schedule</t>
+  </si>
+  <si>
+    <t>오늘의 운동 스케줄</t>
   </si>
   <si>
     <t>empty.schedule.l1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Don't have Schedule Yet.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 스케줄이 없습니다.</t>
+  </si>
+  <si>
+    <t>empty.schedule.l2</t>
   </si>
   <si>
     <t>Add Schedule or Check Presets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 스케줄이 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty.schedule.l2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄을 생성하거나 프리셋을 불러오십시오.</t>
   </si>
   <si>
     <t>empty.schedule.actionBtn.createSchedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Schedule</t>
+  </si>
+  <si>
+    <t>스케줄 생성</t>
   </si>
   <si>
     <t>empty.schedule.actionBtn.checkPreset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Check Preset List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Schedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케줄 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케줄을 생성하거나 프리셋을 불러오십시오.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프리셋 목록 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>todaySchedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What's my today schedule?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘의 운동 스케줄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>preset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actionBtn.create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Create Preset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프리셋 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong.schedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don't have schedule. Please, check again</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 접근입니다. 스케줄을 확인해주세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionBtn.save</t>
+  </si>
+  <si>
+    <t>menu.startWorkoutWithPreset</t>
+  </si>
+  <si>
+    <t>Start Workout</t>
+  </si>
+  <si>
+    <t>menu.deletePreset</t>
+  </si>
+  <si>
+    <t>Delete Preset</t>
+  </si>
+  <si>
+    <t>프리셋 삭제</t>
   </si>
   <si>
     <t>workout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actionBtn.start</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작하기</t>
   </si>
   <si>
     <t>actionBtn.pause</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>일시정지</t>
   </si>
   <si>
     <t>actionBtn.finish</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Finish</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시정지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionBtn.save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save Preset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actionBtn.share</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Share</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공유하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actionBtn.clone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Clone as Schedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스케줄 복사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actionBtn.make</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Make as Preset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프리셋으로 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.startWorkoutWithPreset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start Workout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>운동 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addExercise</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Exercise</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>운동 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>savePreset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.deletePreset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete Preset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리셋 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,13 +395,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -490,25 +424,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -833,24 +759,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.125" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="2" max="2" width="29.125" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="3" max="3" width="26.625" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="4" max="4" width="27.375" customWidth="1" level="0" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+    <row r="2" ht="16.5" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -872,13 +796,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -892,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+    <row r="4" ht="16.5" customHeight="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -906,7 +830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+    <row r="5" ht="16.5" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -920,8 +844,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+    <row r="6" ht="16.5" customHeight="1"/>
+    <row r="7" ht="16.5" customHeight="1">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -935,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+    <row r="8" ht="16.5" customHeight="1">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -949,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+    <row r="9" ht="16.5" customHeight="1">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -963,7 +887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+    <row r="10" ht="16.5" customHeight="1">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -977,8 +901,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+    <row r="11" ht="16.5" customHeight="1"/>
+    <row r="12" ht="16.5" customHeight="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -992,418 +916,432 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+    <row r="13" ht="16.5" customHeight="1">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="20" ht="16.5" customHeight="1"/>
+    <row r="21" ht="16.5" customHeight="1"/>
+    <row r="22" ht="16.5" customHeight="1"/>
+    <row r="23" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="25" ht="16.5" customHeight="1"/>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" t="s">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" customHeight="1"/>
+    <row r="34" ht="16.5" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="36" ht="16.5" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="38" ht="16.5" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" customHeight="1"/>
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" customHeight="1"/>
+    <row r="47" ht="16.5" customHeight="1">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
         <v>109</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D57" t="s">
         <v>110</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C58" t="s">
         <v>112</v>
       </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D58" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A3:D12 A2:B2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D58"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/apps/web/LanguagePack.xlsx
+++ b/apps/web/LanguagePack.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>namespace</t>
   </si>
@@ -57,10 +57,10 @@
     <t>홈</t>
   </si>
   <si>
-    <t>calander</t>
-  </si>
-  <si>
-    <t>Calander</t>
+    <t>calender</t>
+  </si>
+  <si>
+    <t>Calender</t>
   </si>
   <si>
     <t>달력</t>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>error</t>
@@ -1001,7 +1004,11 @@
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
+    <row r="20" ht="16.5" customHeight="1">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="21" ht="16.5" customHeight="1"/>
     <row r="22" ht="16.5" customHeight="1"/>
     <row r="23" ht="16.5" customHeight="1"/>
@@ -1010,190 +1017,190 @@
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1"/>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1"/>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1"/>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1"/>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" ht="16.5" customHeight="1"/>
@@ -1202,13 +1209,13 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" ht="16.5" customHeight="1">
@@ -1216,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
@@ -1230,13 +1237,13 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" ht="16.5" customHeight="1">
@@ -1244,99 +1251,99 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" ht="16.5" customHeight="1"/>
     <row r="52" ht="16.5" customHeight="1"/>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
